--- a/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
@@ -877,6 +877,9 @@
       <c r="C51" t="str">
         <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -938,7 +941,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151554075355359055208108610138169101106136103161010415820151052015106255152520100</v>
+        <v>01515540753553590552081086101381691011061361031610104158201510520151062551525201016</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,7 +845,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="str">
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="str">
         <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
@@ -881,9 +881,92 @@
         <v>16</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>13</v>
+      </c>
+      <c r="C52" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>14</v>
+      </c>
+      <c r="C54" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>356_绿枫叶山货_maple leaf small_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -941,7 +1024,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515540753553590552081086101381691011061361031610104158201510520151062551525201016</v>
+        <v>015155407535535905520810861013816910110613610316101041582015105201510625515252010162051539155101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
@@ -963,6 +963,9 @@
       <c r="C61" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1024,7 +1027,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015155407535535905520810861013816910110613610316101041582015105201510625515252010162051539155101050</v>
+        <v>0151554075355359055208108610138169101106136103161010415820151052015106255152520101620515391551010510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-30.xlsx
@@ -1029,6 +1029,9 @@
       <c r="G2" t="str">
         <v>0151554075355359055208108610138169101106136103161010415820151052015106255152520101620515391551010510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
